--- a/01项目文档/06阶段管理/总计划任务.xlsx
+++ b/01项目文档/06阶段管理/总计划任务.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="77">
   <si>
     <t>责任人</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,10 +46,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>企业框架啊研发创业性模板试点建设方案</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -59,24 +55,125 @@
   </si>
   <si>
     <t>计划完成情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平台框架研发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>源码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>责任人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6-6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6-7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划完成情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建设项目设计概述文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划完成100%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Git使用操作手册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平台框架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平台原始框架搭建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>框架基础表设计文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甘国辉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周期（周）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周期（月）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成100%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成100%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>喻明明
 甘国辉
-龙鸿文</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公司注册</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平台框架研发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>任务计划</t>
+龙鸿文
+许润龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>许润龙</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -84,137 +181,153 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>企业框架研发创业性模板试点建设方案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司官网开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016年01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016年03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙鸿文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平台基础框架架构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块详细设计文档（模板）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平台数据库设计文档（整理）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>许润龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甘国辉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙鸿文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组织机构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喻明明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月度计划（计划安排负责任：喻明明）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周计划（计划安排负责任：喻明明）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总计划（计划安排负责任：喻明明）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据数设计文档（整理）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>持续执行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>喻明明
-甘国辉
-龙鸿文</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划任务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>源码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>责任人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6-4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6-5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6-6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6-7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划完成情况</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设计文档</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建设项目设计概述文档</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划完成100%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Git使用操作手册</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平台框架</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平台原始框架搭建</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>框架基础表设计文档</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>甘国辉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周期（周）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周期（月）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公司官网开发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成100%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2016年03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2016年01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2016年05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2016年09</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成100%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周计划</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>月度计划</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总计划</t>
+许润龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喻明明
+许润龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面设计、组件封装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016-01-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016-01-15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016-02-22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016-03-06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016-02-28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016-02-22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016-03-22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司成立相关事宜</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -356,7 +469,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -504,11 +617,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -600,6 +724,30 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -639,6 +787,15 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -658,6 +815,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -961,10 +1127,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -981,33 +1147,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="31" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="37" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="39"/>
+      <c r="A1" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="47"/>
     </row>
     <row r="2" spans="1:8" s="31" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="40"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="42"/>
+      <c r="A2" s="48"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="50"/>
     </row>
     <row r="3" spans="1:8" s="15" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="43" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="B3" s="51" t="s">
+        <v>8</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>0</v>
@@ -1019,192 +1185,194 @@
         <v>3</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H3" s="33" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="44"/>
+      <c r="B4" s="52"/>
       <c r="C4" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
+      </c>
+      <c r="E4" s="32">
+        <v>42370</v>
       </c>
       <c r="F4" s="34">
         <v>1</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H4" s="11"/>
     </row>
     <row r="5" spans="1:8" s="5" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="44"/>
+        <v>40</v>
+      </c>
+      <c r="B5" s="52"/>
       <c r="C5" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
+      </c>
+      <c r="E5" s="32">
+        <v>42370</v>
       </c>
       <c r="F5" s="34">
         <v>1</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H5" s="13"/>
     </row>
-    <row r="6" spans="1:8" s="5" customFormat="1" ht="36" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" s="5" customFormat="1" ht="48" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="44"/>
+        <v>10</v>
+      </c>
+      <c r="B6" s="52"/>
       <c r="C6" s="4" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
+      </c>
+      <c r="E6" s="32">
+        <v>42491</v>
       </c>
       <c r="F6" s="34">
         <v>3</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H6" s="13"/>
     </row>
-    <row r="7" spans="1:8" ht="36" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" ht="48" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="44"/>
+        <v>11</v>
+      </c>
+      <c r="B7" s="52"/>
       <c r="C7" s="4" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="D7" s="32">
         <v>42430</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>43</v>
+      <c r="E7" s="32">
+        <v>42614</v>
       </c>
       <c r="F7" s="34">
         <v>6</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H7" s="11"/>
     </row>
-    <row r="8" spans="1:8" ht="36" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" ht="48" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="44"/>
+        <v>39</v>
+      </c>
+      <c r="B8" s="52"/>
       <c r="C8" s="4" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="D8" s="32">
         <v>42644</v>
       </c>
       <c r="E8" s="32">
-        <v>42675</v>
+        <v>42767</v>
       </c>
       <c r="F8" s="34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H8" s="11"/>
     </row>
-    <row r="9" spans="1:8" ht="36" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" ht="48" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="44"/>
+        <v>41</v>
+      </c>
+      <c r="B9" s="52"/>
       <c r="C9" s="4" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="D9" s="32">
         <v>42705</v>
       </c>
       <c r="E9" s="32">
-        <v>42767</v>
+        <v>42675</v>
       </c>
       <c r="F9" s="34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H9" s="11"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="8"/>
-      <c r="B10" s="44"/>
+      <c r="B10" s="52"/>
       <c r="G10" s="5"/>
       <c r="H10" s="11"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="8"/>
-      <c r="B11" s="44"/>
+      <c r="B11" s="52"/>
       <c r="G11" s="5"/>
       <c r="H11" s="11"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="8"/>
-      <c r="B12" s="44"/>
+      <c r="B12" s="52"/>
       <c r="G12" s="5"/>
       <c r="H12" s="11"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="8"/>
-      <c r="B13" s="44"/>
+      <c r="B13" s="52"/>
       <c r="G13" s="5"/>
       <c r="H13" s="11"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="8"/>
-      <c r="B14" s="44"/>
+      <c r="B14" s="52"/>
       <c r="G14" s="5"/>
       <c r="H14" s="11"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="8"/>
-      <c r="B15" s="44"/>
+      <c r="B15" s="52"/>
       <c r="G15" s="5"/>
       <c r="H15" s="11"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="8"/>
-      <c r="B16" s="44"/>
+      <c r="B16" s="52"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
       <c r="G16" s="5"/>
       <c r="H16" s="11"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="8"/>
-      <c r="B17" s="44"/>
+      <c r="B17" s="52"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
       <c r="G17" s="5"/>
@@ -1212,7 +1380,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="8"/>
-      <c r="B18" s="44"/>
+      <c r="B18" s="52"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
       <c r="G18" s="5"/>
@@ -1220,52 +1388,44 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="8"/>
-      <c r="B19" s="44"/>
+      <c r="B19" s="52"/>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="11"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="8"/>
-      <c r="B20" s="44"/>
+      <c r="B20" s="52"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="8"/>
-      <c r="B21" s="44"/>
+      <c r="B21" s="52"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="8"/>
-      <c r="B22" s="44"/>
+      <c r="B22" s="52"/>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="8"/>
-      <c r="B23" s="44"/>
+      <c r="B23" s="52"/>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="8"/>
-      <c r="B24" s="44"/>
+      <c r="B24" s="53"/>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A25" s="8"/>
-      <c r="B25" s="45"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:H2"/>
-    <mergeCell ref="B3:B25"/>
+    <mergeCell ref="B3:B24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1275,10 +1435,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -1295,33 +1455,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
+      <c r="A1" s="56" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="49"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
+      <c r="A2" s="57"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
     </row>
     <row r="3" spans="1:8" s="15" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="43" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="B3" s="51" t="s">
+        <v>8</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>0</v>
@@ -1333,150 +1493,327 @@
         <v>3</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="46"/>
+      <c r="B4" s="54"/>
       <c r="C4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="10"/>
+      <c r="D4" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" s="40">
+        <v>2</v>
+      </c>
+      <c r="G4" s="41" t="s">
+        <v>65</v>
+      </c>
       <c r="H4" s="10"/>
     </row>
     <row r="5" spans="1:8" s="5" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="46"/>
+        <v>40</v>
+      </c>
+      <c r="B5" s="54"/>
       <c r="C5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="12"/>
+      <c r="D5" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" s="40">
+        <v>2.5</v>
+      </c>
+      <c r="G5" s="41" t="s">
+        <v>64</v>
+      </c>
       <c r="H5" s="12"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="8"/>
-      <c r="B6" s="46"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="8"/>
-      <c r="B7" s="46"/>
+    <row r="6" spans="1:8" s="5" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" s="54"/>
+      <c r="C6" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="E6" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="F6" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="H6" s="12"/>
+    </row>
+    <row r="7" spans="1:8" ht="24" x14ac:dyDescent="0.15">
+      <c r="A7" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="54"/>
+      <c r="C7" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="F7" s="40">
+        <v>2</v>
+      </c>
+      <c r="G7" s="39" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="8"/>
-      <c r="B8" s="46"/>
+      <c r="A8" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="54"/>
+      <c r="C8" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8" s="40">
+        <v>1</v>
+      </c>
+      <c r="G8" s="39" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="8"/>
-      <c r="B9" s="46"/>
+      <c r="A9" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="54"/>
+      <c r="C9" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="58" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="60"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="8"/>
-      <c r="B10" s="46"/>
+      <c r="A10" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="54"/>
+      <c r="C10" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="58" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="60"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="8"/>
-      <c r="B11" s="46"/>
+      <c r="A11" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" s="54"/>
+      <c r="C11" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="39"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="8"/>
-      <c r="B12" s="46"/>
+      <c r="A12" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="54"/>
+      <c r="C12" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="39"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="8"/>
-      <c r="B13" s="46"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
+      <c r="A13" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="54"/>
+      <c r="C13" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="39"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="8"/>
-      <c r="B14" s="46"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
+      <c r="A14" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="54"/>
+      <c r="C14" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="39"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="8"/>
-      <c r="B15" s="46"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
+      <c r="B15" s="54"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="8"/>
-      <c r="B16" s="46"/>
+      <c r="B16" s="54"/>
       <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="8"/>
-      <c r="B17" s="46"/>
+      <c r="B17" s="54"/>
       <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="8"/>
-      <c r="B18" s="46"/>
+      <c r="B18" s="54"/>
       <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="8"/>
-      <c r="B19" s="46"/>
+      <c r="B19" s="54"/>
       <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="8"/>
-      <c r="B20" s="46"/>
+      <c r="B20" s="54"/>
       <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="8"/>
-      <c r="B21" s="46"/>
+      <c r="B21" s="54"/>
       <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" s="8"/>
-      <c r="B22" s="46"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B22" s="54"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" s="8"/>
-      <c r="B23" s="46"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B23" s="54"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" s="8"/>
-      <c r="B24" s="46"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B24" s="54"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" s="8"/>
-      <c r="B25" s="46"/>
-    </row>
-    <row r="26" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B25" s="54"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26" s="8"/>
-      <c r="B26" s="46"/>
-    </row>
-    <row r="27" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="54"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27" s="8"/>
-      <c r="B27" s="47"/>
+      <c r="B27" s="54"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A28" s="8"/>
+      <c r="B28" s="54"/>
+    </row>
+    <row r="29" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="8"/>
+      <c r="B29" s="54"/>
+    </row>
+    <row r="30" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="8"/>
+      <c r="B30" s="55"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B3:B27"/>
+  <mergeCells count="4">
+    <mergeCell ref="B3:B30"/>
     <mergeCell ref="A1:H2"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="D10:G10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1485,7 +1822,7 @@
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -1501,72 +1838,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="51" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="53"/>
+      <c r="A1" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="64"/>
     </row>
     <row r="2" spans="1:17" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="54"/>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="56"/>
+      <c r="A2" s="65"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="67"/>
     </row>
     <row r="3" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="50" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="B3" s="61" t="s">
+        <v>14</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D3" s="23"/>
       <c r="E3" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="J3" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="24" t="s">
+      <c r="K3" s="24" t="s">
         <v>22</v>
-      </c>
-      <c r="H3" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" s="24" t="s">
-        <v>26</v>
       </c>
       <c r="L3" s="23"/>
       <c r="M3" s="16" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N3" s="25"/>
       <c r="O3" s="25"/>
@@ -1575,9 +1912,9 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A4" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="50"/>
+        <v>24</v>
+      </c>
+      <c r="B4" s="61"/>
       <c r="C4" s="1"/>
       <c r="G4" s="27"/>
       <c r="H4" s="27"/>
@@ -1588,23 +1925,23 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A5" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="50"/>
+        <v>25</v>
+      </c>
+      <c r="B5" s="61"/>
       <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G5" s="28"/>
       <c r="H5" s="28"/>
       <c r="M5" s="18" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A6" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="50"/>
+        <v>27</v>
+      </c>
+      <c r="B6" s="61"/>
       <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1612,24 +1949,24 @@
       <c r="J6" s="28"/>
       <c r="K6" s="28"/>
       <c r="M6" s="18" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A7" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="50"/>
+        <v>28</v>
+      </c>
+      <c r="B7" s="61"/>
       <c r="C7" s="1"/>
       <c r="M7" s="18"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:17" ht="24" x14ac:dyDescent="0.15">
       <c r="A8" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="50"/>
-      <c r="C8" s="1" t="s">
-        <v>6</v>
+        <v>29</v>
+      </c>
+      <c r="B8" s="61"/>
+      <c r="C8" s="37" t="s">
+        <v>60</v>
       </c>
       <c r="E8" s="27"/>
       <c r="F8" s="27"/>
@@ -1639,24 +1976,24 @@
       <c r="J8" s="28"/>
       <c r="K8" s="28"/>
       <c r="M8" s="18" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A9" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="50"/>
+        <v>24</v>
+      </c>
+      <c r="B9" s="61"/>
       <c r="C9" s="1"/>
       <c r="M9" s="18"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A10" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="50"/>
+        <v>30</v>
+      </c>
+      <c r="B10" s="61"/>
       <c r="C10" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E10" s="27"/>
       <c r="F10" s="27"/>
@@ -1666,115 +2003,127 @@
       <c r="J10" s="28"/>
       <c r="K10" s="28"/>
       <c r="M10" s="18" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A11" s="19"/>
-      <c r="B11" s="50"/>
+      <c r="B11" s="61"/>
       <c r="C11" s="1"/>
       <c r="M11" s="18"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A12" s="19"/>
-      <c r="B12" s="50"/>
-      <c r="C12" s="1"/>
+      <c r="A12" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="61"/>
+      <c r="C12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="68" t="s">
+        <v>59</v>
+      </c>
+      <c r="H12" s="69"/>
+      <c r="I12" s="69"/>
+      <c r="J12" s="69"/>
+      <c r="K12" s="70"/>
       <c r="M12" s="18"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A13" s="19"/>
-      <c r="B13" s="50"/>
+      <c r="B13" s="61"/>
       <c r="C13" s="1"/>
       <c r="M13" s="18"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A14" s="19"/>
-      <c r="B14" s="50"/>
+      <c r="B14" s="61"/>
       <c r="C14" s="1"/>
       <c r="M14" s="18"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A15" s="19"/>
-      <c r="B15" s="50"/>
+      <c r="B15" s="61"/>
       <c r="C15" s="1"/>
       <c r="M15" s="18"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A16" s="19"/>
-      <c r="B16" s="50"/>
+      <c r="B16" s="61"/>
       <c r="C16" s="1"/>
       <c r="M16" s="18"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A17" s="19"/>
-      <c r="B17" s="50"/>
+      <c r="B17" s="61"/>
       <c r="C17" s="1"/>
       <c r="M17" s="18"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A18" s="19"/>
-      <c r="B18" s="50"/>
+      <c r="B18" s="61"/>
       <c r="C18" s="1"/>
       <c r="M18" s="18"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A19" s="19"/>
-      <c r="B19" s="50"/>
+      <c r="B19" s="61"/>
       <c r="C19" s="1"/>
       <c r="M19" s="18"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A20" s="19"/>
-      <c r="B20" s="50"/>
+      <c r="B20" s="61"/>
       <c r="C20" s="1"/>
       <c r="M20" s="18"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A21" s="19"/>
-      <c r="B21" s="50"/>
+      <c r="B21" s="61"/>
       <c r="C21" s="1"/>
       <c r="M21" s="18"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A22" s="19"/>
-      <c r="B22" s="50"/>
+      <c r="B22" s="61"/>
       <c r="C22" s="1"/>
       <c r="M22" s="18"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A23" s="19"/>
-      <c r="B23" s="50"/>
+      <c r="B23" s="61"/>
       <c r="C23" s="1"/>
       <c r="M23" s="18"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A24" s="19"/>
-      <c r="B24" s="50"/>
+      <c r="B24" s="61"/>
       <c r="C24" s="1"/>
       <c r="M24" s="18"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A25" s="19"/>
-      <c r="B25" s="50"/>
+      <c r="B25" s="61"/>
       <c r="C25" s="1"/>
       <c r="M25" s="18"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A26" s="19"/>
-      <c r="B26" s="50"/>
+      <c r="B26" s="61"/>
       <c r="C26" s="1"/>
       <c r="M26" s="18"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A27" s="19"/>
-      <c r="B27" s="50"/>
+      <c r="B27" s="61"/>
       <c r="C27" s="1"/>
       <c r="M27" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="B3:B27"/>
     <mergeCell ref="A1:M2"/>
+    <mergeCell ref="G12:K12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
